--- a/parameter_list/FCM+parameterTuning.xlsx
+++ b/parameter_list/FCM+parameterTuning.xlsx
@@ -486,7 +486,7 @@
         <v>0.3767438737857143</v>
       </c>
       <c r="E2" t="n">
-        <v>9448.561368787616</v>
+        <v>9448.561368787618</v>
       </c>
       <c r="F2" t="n">
         <v>0.8954874117320086</v>
@@ -513,7 +513,7 @@
         <v>0.3729835586344804</v>
       </c>
       <c r="E3" t="n">
-        <v>9435.906985270954</v>
+        <v>9435.906985270953</v>
       </c>
       <c r="F3" t="n">
         <v>0.9050097663094974</v>
@@ -540,7 +540,7 @@
         <v>0.3616961988802582</v>
       </c>
       <c r="E4" t="n">
-        <v>9350.132872390159</v>
+        <v>9350.132872390161</v>
       </c>
       <c r="F4" t="n">
         <v>0.9275860538908889</v>
@@ -567,7 +567,7 @@
         <v>0.3493137951760315</v>
       </c>
       <c r="E5" t="n">
-        <v>7117.400610499292</v>
+        <v>7117.400610499293</v>
       </c>
       <c r="F5" t="n">
         <v>0.9650948051751462</v>
@@ -594,7 +594,7 @@
         <v>0.3430922770118485</v>
       </c>
       <c r="E6" t="n">
-        <v>7098.00713805431</v>
+        <v>7098.007138054311</v>
       </c>
       <c r="F6" t="n">
         <v>0.967321787111533</v>
@@ -783,7 +783,7 @@
         <v>0.3262771383989331</v>
       </c>
       <c r="E13" t="n">
-        <v>7325.111387245467</v>
+        <v>7325.111387245466</v>
       </c>
       <c r="F13" t="n">
         <v>1.028330112402642</v>

--- a/parameter_list/FCM+parameterTuning.xlsx
+++ b/parameter_list/FCM+parameterTuning.xlsx
@@ -486,7 +486,7 @@
         <v>0.3767438737857143</v>
       </c>
       <c r="E2" t="n">
-        <v>9448.561368787618</v>
+        <v>9448.561368787616</v>
       </c>
       <c r="F2" t="n">
         <v>0.8954874117320086</v>
@@ -540,7 +540,7 @@
         <v>0.3616961988802582</v>
       </c>
       <c r="E4" t="n">
-        <v>9350.132872390161</v>
+        <v>9350.132872390159</v>
       </c>
       <c r="F4" t="n">
         <v>0.9275860538908889</v>
@@ -726,13 +726,13 @@
         <v>1.1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3566766486186944</v>
+        <v>0.3493835091370245</v>
       </c>
       <c r="E11" t="n">
-        <v>7536.200018049319</v>
+        <v>7528.653131296791</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9800899871009449</v>
+        <v>0.9929992275794423</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>0.3262771383989331</v>
       </c>
       <c r="E13" t="n">
-        <v>7325.111387245466</v>
+        <v>7325.111387245467</v>
       </c>
       <c r="F13" t="n">
         <v>1.028330112402642</v>

--- a/parameter_list/FCM+parameterTuning.xlsx
+++ b/parameter_list/FCM+parameterTuning.xlsx
@@ -486,7 +486,7 @@
         <v>0.3767438737857143</v>
       </c>
       <c r="E2" t="n">
-        <v>9448.561368787616</v>
+        <v>9448.561368787618</v>
       </c>
       <c r="F2" t="n">
         <v>0.8954874117320086</v>
@@ -513,7 +513,7 @@
         <v>0.3729835586344804</v>
       </c>
       <c r="E3" t="n">
-        <v>9435.906985270953</v>
+        <v>9435.906985270954</v>
       </c>
       <c r="F3" t="n">
         <v>0.9050097663094974</v>
@@ -540,7 +540,7 @@
         <v>0.3616961988802582</v>
       </c>
       <c r="E4" t="n">
-        <v>9350.132872390159</v>
+        <v>9350.132872390161</v>
       </c>
       <c r="F4" t="n">
         <v>0.9275860538908889</v>
@@ -567,7 +567,7 @@
         <v>0.3493137951760315</v>
       </c>
       <c r="E5" t="n">
-        <v>7117.400610499293</v>
+        <v>7117.400610499292</v>
       </c>
       <c r="F5" t="n">
         <v>0.9650948051751462</v>
@@ -726,13 +726,13 @@
         <v>1.1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3493835091370245</v>
+        <v>0.3566766486186944</v>
       </c>
       <c r="E11" t="n">
-        <v>7528.653131296791</v>
+        <v>7536.200018049319</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9929992275794423</v>
+        <v>0.9800899871009449</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
